--- a/xgb_results_lasso_SMOTE.xlsx
+++ b/xgb_results_lasso_SMOTE.xlsx
@@ -465,7 +465,7 @@
         <v>18</v>
       </c>
       <c r="D2">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="E2">
         <v>0.579</v>
@@ -485,7 +485,7 @@
         <v>18</v>
       </c>
       <c r="D3">
-        <v>0.705</v>
+        <v>0.706</v>
       </c>
       <c r="E3">
         <v>0.615</v>
@@ -505,10 +505,10 @@
         <v>18</v>
       </c>
       <c r="D4">
-        <v>0.723</v>
+        <v>0.732</v>
       </c>
       <c r="E4">
-        <v>0.621</v>
+        <v>0.618</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -525,13 +525,13 @@
         <v>18</v>
       </c>
       <c r="D5">
-        <v>0.749</v>
+        <v>0.744</v>
       </c>
       <c r="E5">
-        <v>0.631</v>
+        <v>0.623</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -545,13 +545,13 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="E6">
-        <v>0.602</v>
+        <v>0.605</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -565,13 +565,13 @@
         <v>18</v>
       </c>
       <c r="D7">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="E7">
-        <v>0.616</v>
+        <v>0.619</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -585,7 +585,7 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>0.736</v>
+        <v>0.744</v>
       </c>
       <c r="E8">
         <v>0.622</v>
@@ -605,13 +605,13 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="E9">
-        <v>0.632</v>
+        <v>0.631</v>
       </c>
       <c r="F9">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -625,13 +625,13 @@
         <v>18</v>
       </c>
       <c r="D10">
-        <v>0.698</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E10">
-        <v>0.605</v>
+        <v>0.603</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -645,13 +645,13 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="E11">
-        <v>0.617</v>
+        <v>0.62</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -665,10 +665,10 @@
         <v>18</v>
       </c>
       <c r="D12">
-        <v>0.738</v>
+        <v>0.747</v>
       </c>
       <c r="E12">
-        <v>0.623</v>
+        <v>0.624</v>
       </c>
       <c r="F12">
         <v>14</v>
@@ -685,10 +685,10 @@
         <v>18</v>
       </c>
       <c r="D13">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="E13">
-        <v>0.633</v>
+        <v>0.631</v>
       </c>
       <c r="F13">
         <v>21</v>
@@ -705,13 +705,13 @@
         <v>18</v>
       </c>
       <c r="D14">
-        <v>0.719</v>
+        <v>0.71</v>
       </c>
       <c r="E14">
-        <v>0.612</v>
+        <v>0.617</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -725,13 +725,13 @@
         <v>18</v>
       </c>
       <c r="D15">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="E15">
-        <v>0.619</v>
+        <v>0.626</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -745,13 +745,13 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="E16">
-        <v>0.626</v>
+        <v>0.629</v>
       </c>
       <c r="F16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -765,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="D17">
-        <v>0.779</v>
+        <v>0.774</v>
       </c>
       <c r="E17">
         <v>0.634</v>
@@ -785,13 +785,13 @@
         <v>18</v>
       </c>
       <c r="D18">
-        <v>0.726</v>
+        <v>0.711</v>
       </c>
       <c r="E18">
-        <v>0.616</v>
+        <v>0.615</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -805,13 +805,13 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.735</v>
+        <v>0.747</v>
       </c>
       <c r="E19">
-        <v>0.62</v>
+        <v>0.631</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -828,10 +828,10 @@
         <v>0.762</v>
       </c>
       <c r="E20">
-        <v>0.628</v>
+        <v>0.629</v>
       </c>
       <c r="F20">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -848,10 +848,10 @@
         <v>0.786</v>
       </c>
       <c r="E21">
-        <v>0.637</v>
+        <v>0.633</v>
       </c>
       <c r="F21">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -865,10 +865,10 @@
         <v>18</v>
       </c>
       <c r="D22">
-        <v>0.734</v>
+        <v>0.727</v>
       </c>
       <c r="E22">
-        <v>0.622</v>
+        <v>0.62</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -885,13 +885,13 @@
         <v>18</v>
       </c>
       <c r="D23">
-        <v>0.741</v>
+        <v>0.747</v>
       </c>
       <c r="E23">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -905,10 +905,10 @@
         <v>18</v>
       </c>
       <c r="D24">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="E24">
-        <v>0.63</v>
+        <v>0.631</v>
       </c>
       <c r="F24">
         <v>17</v>
@@ -925,13 +925,13 @@
         <v>18</v>
       </c>
       <c r="D25">
-        <v>0.793</v>
+        <v>0.789</v>
       </c>
       <c r="E25">
-        <v>0.637</v>
+        <v>0.636</v>
       </c>
       <c r="F25">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -945,13 +945,13 @@
         <v>18</v>
       </c>
       <c r="D26">
-        <v>0.737</v>
+        <v>0.733</v>
       </c>
       <c r="E26">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -965,13 +965,13 @@
         <v>18</v>
       </c>
       <c r="D27">
-        <v>0.754</v>
+        <v>0.75</v>
       </c>
       <c r="E27">
-        <v>0.629</v>
+        <v>0.631</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -985,10 +985,10 @@
         <v>18</v>
       </c>
       <c r="D28">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="E28">
-        <v>0.631</v>
+        <v>0.636</v>
       </c>
       <c r="F28">
         <v>18</v>
@@ -1005,13 +1005,13 @@
         <v>18</v>
       </c>
       <c r="D29">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="E29">
-        <v>0.639</v>
+        <v>0.637</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1025,10 +1025,10 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>0.736</v>
+        <v>0.737</v>
       </c>
       <c r="E30">
-        <v>0.623</v>
+        <v>0.629</v>
       </c>
       <c r="F30">
         <v>8</v>
@@ -1048,10 +1048,10 @@
         <v>0.76</v>
       </c>
       <c r="E31">
-        <v>0.633</v>
+        <v>0.634</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1068,10 +1068,10 @@
         <v>0.78</v>
       </c>
       <c r="E32">
-        <v>0.635</v>
+        <v>0.638</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1085,13 +1085,13 @@
         <v>18</v>
       </c>
       <c r="D33">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="E33">
         <v>0.64</v>
       </c>
       <c r="F33">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1105,10 +1105,10 @@
         <v>18</v>
       </c>
       <c r="D34">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="E34">
-        <v>0.625</v>
+        <v>0.629</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -1125,13 +1125,13 @@
         <v>18</v>
       </c>
       <c r="D35">
-        <v>0.762</v>
+        <v>0.767</v>
       </c>
       <c r="E35">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
       <c r="F35">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1145,13 +1145,13 @@
         <v>18</v>
       </c>
       <c r="D36">
-        <v>0.782</v>
+        <v>0.787</v>
       </c>
       <c r="E36">
-        <v>0.635</v>
+        <v>0.638</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1165,13 +1165,13 @@
         <v>18</v>
       </c>
       <c r="D37">
-        <v>0.8100000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E37">
-        <v>0.643</v>
+        <v>0.641</v>
       </c>
       <c r="F37">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1185,10 +1185,10 @@
         <v>18</v>
       </c>
       <c r="D38">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="E38">
-        <v>0.626</v>
+        <v>0.63</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -1208,7 +1208,7 @@
         <v>0.772</v>
       </c>
       <c r="E39">
-        <v>0.639</v>
+        <v>0.637</v>
       </c>
       <c r="F39">
         <v>13</v>
@@ -1225,13 +1225,13 @@
         <v>18</v>
       </c>
       <c r="D40">
-        <v>0.793</v>
+        <v>0.797</v>
       </c>
       <c r="E40">
         <v>0.64</v>
       </c>
       <c r="F40">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1245,13 +1245,13 @@
         <v>18</v>
       </c>
       <c r="D41">
-        <v>0.8169999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="E41">
-        <v>0.645</v>
+        <v>0.643</v>
       </c>
       <c r="F41">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1268,10 +1268,10 @@
         <v>0.758</v>
       </c>
       <c r="E42">
-        <v>0.635</v>
+        <v>0.636</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1285,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="D43">
-        <v>0.779</v>
+        <v>0.787</v>
       </c>
       <c r="E43">
-        <v>0.641</v>
+        <v>0.643</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1305,13 +1305,13 @@
         <v>18</v>
       </c>
       <c r="D44">
-        <v>0.801</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E44">
-        <v>0.64</v>
+        <v>0.641</v>
       </c>
       <c r="F44">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1325,13 +1325,13 @@
         <v>18</v>
       </c>
       <c r="D45">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="E45">
         <v>0.647</v>
       </c>
       <c r="F45">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1345,13 +1345,13 @@
         <v>18</v>
       </c>
       <c r="D46">
-        <v>0.769</v>
+        <v>0.772</v>
       </c>
       <c r="E46">
-        <v>0.637</v>
+        <v>0.642</v>
       </c>
       <c r="F46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1368,10 +1368,10 @@
         <v>0.8</v>
       </c>
       <c r="E47">
-        <v>0.644</v>
+        <v>0.645</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1385,13 +1385,13 @@
         <v>18</v>
       </c>
       <c r="D48">
-        <v>0.8179999999999999</v>
+        <v>0.822</v>
       </c>
       <c r="E48">
-        <v>0.644</v>
+        <v>0.647</v>
       </c>
       <c r="F48">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1405,13 +1405,13 @@
         <v>18</v>
       </c>
       <c r="D49">
-        <v>0.846</v>
+        <v>0.844</v>
       </c>
       <c r="E49">
-        <v>0.651</v>
+        <v>0.649</v>
       </c>
       <c r="F49">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_results_lasso_SMOTE.xlsx
+++ b/xgb_results_lasso_SMOTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>Trees</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>num_vars</t>
+  </si>
+  <si>
+    <t>Neg Accuracy</t>
   </si>
   <si>
     <t>2</t>
@@ -428,13 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,179 +456,206 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2">
-        <v>0.661</v>
+        <v>0.662</v>
       </c>
       <c r="E2">
-        <v>0.579</v>
+        <v>0.583</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.5682792406613595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>0.694</v>
+      </c>
+      <c r="E3">
+        <v>0.605</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>0.706</v>
-      </c>
-      <c r="E3">
-        <v>0.615</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.4807103490508267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>0.732</v>
+        <v>0.716</v>
       </c>
       <c r="E4">
-        <v>0.618</v>
+        <v>0.619</v>
       </c>
       <c r="F4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>0.5826699326393141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>0.744</v>
+        <v>0.73</v>
       </c>
       <c r="E5">
-        <v>0.623</v>
+        <v>0.619</v>
       </c>
       <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>0.5483772198407838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.604</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0.5333741579914268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>0.713</v>
+      </c>
+      <c r="E7">
+        <v>0.617</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>0.5903245560318432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>0.739</v>
+      </c>
+      <c r="E8">
+        <v>0.619</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>0.5480710349050827</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.757</v>
+      </c>
+      <c r="E9">
+        <v>0.627</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
-        <v>0.679</v>
-      </c>
-      <c r="E6">
-        <v>0.605</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7">
-        <v>0.718</v>
-      </c>
-      <c r="E7">
-        <v>0.619</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
-        <v>0.744</v>
-      </c>
-      <c r="E8">
-        <v>0.622</v>
-      </c>
-      <c r="F8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>0.762</v>
-      </c>
-      <c r="E9">
-        <v>0.631</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.546846295162278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.6929999999999999</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E10">
         <v>0.603</v>
@@ -633,459 +663,528 @@
       <c r="F10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.545009185548071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="E11">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.5425597060624617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="E12">
-        <v>0.624</v>
+        <v>0.623</v>
       </c>
       <c r="F12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>0.5496019595835885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>0.768</v>
+        <v>0.772</v>
       </c>
       <c r="E13">
         <v>0.631</v>
       </c>
       <c r="F13">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>0.5480710349050827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>0.71</v>
+        <v>0.706</v>
       </c>
       <c r="E14">
-        <v>0.617</v>
+        <v>0.616</v>
       </c>
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0.5254133496631965</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>0.729</v>
+        <v>0.725</v>
       </c>
       <c r="E15">
+        <v>0.623</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>0.5183710961420698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>0.76</v>
+      </c>
+      <c r="E16">
         <v>0.626</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>0.753</v>
-      </c>
-      <c r="E16">
-        <v>0.629</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.5275566442131047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>0.774</v>
+        <v>0.783</v>
       </c>
       <c r="E17">
         <v>0.634</v>
       </c>
       <c r="F17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>0.5330679730557256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>0.711</v>
+        <v>0.715</v>
       </c>
       <c r="E18">
-        <v>0.615</v>
+        <v>0.622</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0.5725658297611758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>0.747</v>
+        <v>0.73</v>
       </c>
       <c r="E19">
-        <v>0.631</v>
+        <v>0.624</v>
       </c>
       <c r="F19">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0.5401102265768524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="E20">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="F20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>0.5189834660134721</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>0.786</v>
       </c>
       <c r="E21">
-        <v>0.633</v>
+        <v>0.637</v>
       </c>
       <c r="F21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G21">
+        <v>0.533680342927128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>0.727</v>
+        <v>0.731</v>
       </c>
       <c r="E22">
-        <v>0.62</v>
+        <v>0.626</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0.5324556031843233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="E23">
-        <v>0.63</v>
+        <v>0.628</v>
       </c>
       <c r="F23">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0.5208205756276791</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="E24">
-        <v>0.631</v>
+        <v>0.629</v>
       </c>
       <c r="F24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>0.5223515003061849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>0.789</v>
+        <v>0.795</v>
       </c>
       <c r="E25">
         <v>0.636</v>
       </c>
       <c r="F25">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G25">
+        <v>0.5342927127985303</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>0.732</v>
+      </c>
+      <c r="E26">
+        <v>0.625</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+      <c r="G26">
+        <v>0.5251071647274954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>0.751</v>
+      </c>
+      <c r="E27">
+        <v>0.629</v>
+      </c>
+      <c r="F27">
         <v>12</v>
       </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26">
-        <v>0.733</v>
-      </c>
-      <c r="E26">
-        <v>0.627</v>
-      </c>
-      <c r="F26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27">
-        <v>0.75</v>
-      </c>
-      <c r="E27">
-        <v>0.631</v>
-      </c>
-      <c r="F27">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0.524188609920392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="E28">
+        <v>0.635</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>0.5235762400489896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>0.802</v>
+      </c>
+      <c r="E29">
         <v>0.636</v>
       </c>
-      <c r="F28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29">
-        <v>0.795</v>
-      </c>
-      <c r="E29">
-        <v>0.637</v>
-      </c>
       <c r="F29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="G29">
+        <v>0.5257195345988978</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>0.737</v>
       </c>
       <c r="E30">
-        <v>0.629</v>
+        <v>0.628</v>
       </c>
       <c r="F30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>0.5480710349050827</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="E31">
-        <v>0.634</v>
+        <v>0.632</v>
       </c>
       <c r="F31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>0.5315370483772198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32">
+        <v>0.778</v>
+      </c>
+      <c r="E32">
+        <v>0.635</v>
+      </c>
+      <c r="F32">
         <v>18</v>
       </c>
-      <c r="D32">
-        <v>0.78</v>
-      </c>
-      <c r="E32">
-        <v>0.638</v>
-      </c>
-      <c r="F32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32">
+        <v>0.5174525413349663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>0.803</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="E33">
         <v>0.64</v>
@@ -1093,325 +1192,376 @@
       <c r="F33">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33">
+        <v>0.5202082057562768</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>0.738</v>
       </c>
       <c r="E34">
-        <v>0.629</v>
+        <v>0.63</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>0.5554194733619106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>0.767</v>
+        <v>0.759</v>
       </c>
       <c r="E35">
-        <v>0.638</v>
+        <v>0.633</v>
       </c>
       <c r="F35">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0.5284751990202082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="E36">
         <v>0.638</v>
       </c>
       <c r="F36">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G36">
+        <v>0.522657685241886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D37">
-        <v>0.8080000000000001</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="E37">
-        <v>0.641</v>
+        <v>0.64</v>
       </c>
       <c r="F37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0.5122473974280466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="E38">
-        <v>0.63</v>
+        <v>0.629</v>
       </c>
       <c r="F38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38">
+        <v>0.5370483772198408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D39">
-        <v>0.772</v>
+        <v>0.776</v>
       </c>
       <c r="E39">
         <v>0.637</v>
       </c>
       <c r="F39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="G39">
+        <v>0.530006123698714</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D40">
-        <v>0.797</v>
+        <v>0.792</v>
       </c>
       <c r="E40">
+        <v>0.642</v>
+      </c>
+      <c r="F40">
+        <v>22</v>
+      </c>
+      <c r="G40">
+        <v>0.5205143906919779</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>0.819</v>
+      </c>
+      <c r="E41">
+        <v>0.642</v>
+      </c>
+      <c r="F41">
+        <v>28</v>
+      </c>
+      <c r="G41">
+        <v>0.5082669932639314</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>0.756</v>
+      </c>
+      <c r="E42">
+        <v>0.632</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>0.5339865278628292</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43">
+        <v>0.786</v>
+      </c>
+      <c r="E43">
         <v>0.64</v>
       </c>
-      <c r="F40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41">
-        <v>0.8149999999999999</v>
-      </c>
-      <c r="E41">
-        <v>0.643</v>
-      </c>
-      <c r="F41">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="F43">
         <v>16</v>
       </c>
-      <c r="B42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42">
-        <v>0.758</v>
-      </c>
-      <c r="E42">
-        <v>0.636</v>
-      </c>
-      <c r="F42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43">
-        <v>0.787</v>
-      </c>
-      <c r="E43">
-        <v>0.643</v>
-      </c>
-      <c r="F43">
+      <c r="G43">
+        <v>0.5278628291488059</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>0.8110000000000001</v>
+        <v>0.804</v>
       </c>
       <c r="E44">
-        <v>0.641</v>
+        <v>0.644</v>
       </c>
       <c r="F44">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44">
+        <v>0.5094917330067361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D45">
-        <v>0.827</v>
+        <v>0.833</v>
       </c>
       <c r="E45">
-        <v>0.647</v>
+        <v>0.645</v>
       </c>
       <c r="F45">
         <v>30</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0.4874464176362523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46">
+        <v>0.769</v>
+      </c>
+      <c r="E46">
+        <v>0.641</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>0.5379669320269442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="D46">
-        <v>0.772</v>
-      </c>
-      <c r="E46">
-        <v>0.642</v>
-      </c>
-      <c r="F46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>17</v>
-      </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>0.802</v>
+      </c>
+      <c r="E47">
+        <v>0.644</v>
+      </c>
+      <c r="F47">
+        <v>21</v>
+      </c>
+      <c r="G47">
+        <v>0.518677281077771</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
         <v>18</v>
       </c>
-      <c r="D47">
-        <v>0.8</v>
-      </c>
-      <c r="E47">
-        <v>0.645</v>
-      </c>
-      <c r="F47">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>17</v>
-      </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>0.822</v>
       </c>
       <c r="E48">
-        <v>0.647</v>
+        <v>0.646</v>
       </c>
       <c r="F48">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G48">
+        <v>0.484996938150643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>0.844</v>
+        <v>0.849</v>
       </c>
       <c r="E49">
-        <v>0.649</v>
+        <v>0.648</v>
       </c>
       <c r="F49">
         <v>31</v>
+      </c>
+      <c r="G49">
+        <v>0.4611145131659523</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_results_lasso_SMOTE.xlsx
+++ b/xgb_results_lasso_SMOTE.xlsx
@@ -471,16 +471,16 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>0.662</v>
+        <v>0.671</v>
       </c>
       <c r="E2">
-        <v>0.583</v>
+        <v>0.599</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>0.5682792406613595</v>
+        <v>0.5590936925903246</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -494,16 +494,16 @@
         <v>19</v>
       </c>
       <c r="D3">
-        <v>0.694</v>
+        <v>0.699</v>
       </c>
       <c r="E3">
-        <v>0.605</v>
+        <v>0.621</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3">
-        <v>0.4807103490508267</v>
+        <v>0.5600122473974281</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -517,16 +517,16 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="E4">
-        <v>0.619</v>
+        <v>0.627</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>0.5826699326393141</v>
+        <v>0.629210042865891</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -540,16 +540,16 @@
         <v>19</v>
       </c>
       <c r="D5">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="E5">
-        <v>0.619</v>
+        <v>0.629</v>
       </c>
       <c r="F5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0.5483772198407838</v>
+        <v>0.5731781996325781</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -563,16 +563,16 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E6">
-        <v>0.604</v>
+        <v>0.605</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>0.5333741579914268</v>
+        <v>0.5364360073484384</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -586,16 +586,16 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0.713</v>
+        <v>0.71</v>
       </c>
       <c r="E7">
-        <v>0.617</v>
+        <v>0.621</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>0.5903245560318432</v>
+        <v>0.5290875688916106</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -609,16 +609,16 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>0.739</v>
+        <v>0.722</v>
       </c>
       <c r="E8">
-        <v>0.619</v>
+        <v>0.629</v>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>0.5480710349050827</v>
+        <v>0.6175750153092467</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -632,16 +632,16 @@
         <v>19</v>
       </c>
       <c r="D9">
-        <v>0.757</v>
+        <v>0.744</v>
       </c>
       <c r="E9">
-        <v>0.627</v>
+        <v>0.633</v>
       </c>
       <c r="F9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>0.546846295162278</v>
+        <v>0.5930802204531537</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -655,16 +655,16 @@
         <v>19</v>
       </c>
       <c r="D10">
-        <v>0.6889999999999999</v>
+        <v>0.694</v>
       </c>
       <c r="E10">
-        <v>0.603</v>
+        <v>0.616</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>0.545009185548071</v>
+        <v>0.5263319044703001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -678,16 +678,16 @@
         <v>19</v>
       </c>
       <c r="D11">
-        <v>0.717</v>
+        <v>0.712</v>
       </c>
       <c r="E11">
-        <v>0.619</v>
+        <v>0.623</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>0.5425597060624617</v>
+        <v>0.5835884874464177</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -701,16 +701,16 @@
         <v>19</v>
       </c>
       <c r="D12">
-        <v>0.746</v>
+        <v>0.727</v>
       </c>
       <c r="E12">
-        <v>0.623</v>
+        <v>0.633</v>
       </c>
       <c r="F12">
         <v>13</v>
       </c>
       <c r="G12">
-        <v>0.5496019595835885</v>
+        <v>0.6313533374157991</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -724,16 +724,16 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <v>0.772</v>
+        <v>0.75</v>
       </c>
       <c r="E13">
-        <v>0.631</v>
+        <v>0.635</v>
       </c>
       <c r="F13">
         <v>19</v>
       </c>
       <c r="G13">
-        <v>0.5480710349050827</v>
+        <v>0.5783833435394978</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -747,16 +747,16 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>0.706</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="E14">
-        <v>0.616</v>
+        <v>0.614</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>0.5254133496631965</v>
+        <v>0.5554194733619106</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -770,7 +770,7 @@
         <v>19</v>
       </c>
       <c r="D15">
-        <v>0.725</v>
+        <v>0.712</v>
       </c>
       <c r="E15">
         <v>0.623</v>
@@ -779,7 +779,7 @@
         <v>9</v>
       </c>
       <c r="G15">
-        <v>0.5183710961420698</v>
+        <v>0.5315370483772198</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -793,16 +793,16 @@
         <v>19</v>
       </c>
       <c r="D16">
-        <v>0.76</v>
+        <v>0.736</v>
       </c>
       <c r="E16">
-        <v>0.626</v>
+        <v>0.634</v>
       </c>
       <c r="F16">
         <v>14</v>
       </c>
       <c r="G16">
-        <v>0.5275566442131047</v>
+        <v>0.5627679118187385</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -816,16 +816,16 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>0.783</v>
+        <v>0.754</v>
       </c>
       <c r="E17">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
       <c r="F17">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>0.5330679730557256</v>
+        <v>0.5774647887323944</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -839,16 +839,16 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>0.715</v>
+        <v>0.701</v>
       </c>
       <c r="E18">
-        <v>0.622</v>
+        <v>0.623</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>0.5725658297611758</v>
+        <v>0.5759338640538886</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -865,13 +865,13 @@
         <v>0.73</v>
       </c>
       <c r="E19">
-        <v>0.624</v>
+        <v>0.627</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>0.5401102265768524</v>
+        <v>0.5202082057562768</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -885,16 +885,16 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0.765</v>
+        <v>0.743</v>
       </c>
       <c r="E20">
-        <v>0.628</v>
+        <v>0.636</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20">
-        <v>0.5189834660134721</v>
+        <v>0.6062461726883037</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -908,16 +908,16 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>0.786</v>
+        <v>0.762</v>
       </c>
       <c r="E21">
-        <v>0.637</v>
+        <v>0.642</v>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G21">
-        <v>0.533680342927128</v>
+        <v>0.580526638089406</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -931,16 +931,16 @@
         <v>19</v>
       </c>
       <c r="D22">
-        <v>0.731</v>
+        <v>0.717</v>
       </c>
       <c r="E22">
-        <v>0.626</v>
+        <v>0.627</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>0.5324556031843233</v>
+        <v>0.5569503980404165</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -954,16 +954,16 @@
         <v>19</v>
       </c>
       <c r="D23">
-        <v>0.746</v>
+        <v>0.735</v>
       </c>
       <c r="E23">
-        <v>0.628</v>
+        <v>0.633</v>
       </c>
       <c r="F23">
         <v>11</v>
       </c>
       <c r="G23">
-        <v>0.5208205756276791</v>
+        <v>0.5535823637477036</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -977,16 +977,16 @@
         <v>19</v>
       </c>
       <c r="D24">
-        <v>0.767</v>
+        <v>0.755</v>
       </c>
       <c r="E24">
-        <v>0.629</v>
+        <v>0.643</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>0.5223515003061849</v>
+        <v>0.5970606246172688</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1000,16 +1000,16 @@
         <v>19</v>
       </c>
       <c r="D25">
-        <v>0.795</v>
+        <v>0.77</v>
       </c>
       <c r="E25">
-        <v>0.636</v>
+        <v>0.644</v>
       </c>
       <c r="F25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G25">
-        <v>0.5342927127985303</v>
+        <v>0.5725658297611758</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1023,16 +1023,16 @@
         <v>19</v>
       </c>
       <c r="D26">
-        <v>0.732</v>
+        <v>0.722</v>
       </c>
       <c r="E26">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>0.5251071647274954</v>
+        <v>0.5731781996325781</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1046,16 +1046,16 @@
         <v>19</v>
       </c>
       <c r="D27">
-        <v>0.751</v>
+        <v>0.742</v>
       </c>
       <c r="E27">
-        <v>0.629</v>
+        <v>0.639</v>
       </c>
       <c r="F27">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27">
-        <v>0.524188609920392</v>
+        <v>0.5496019595835885</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1069,16 +1069,16 @@
         <v>19</v>
       </c>
       <c r="D28">
-        <v>0.775</v>
+        <v>0.76</v>
       </c>
       <c r="E28">
-        <v>0.635</v>
+        <v>0.643</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G28">
-        <v>0.5235762400489896</v>
+        <v>0.5946111451316595</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1092,16 +1092,16 @@
         <v>19</v>
       </c>
       <c r="D29">
-        <v>0.802</v>
+        <v>0.774</v>
       </c>
       <c r="E29">
-        <v>0.636</v>
+        <v>0.645</v>
       </c>
       <c r="F29">
         <v>27</v>
       </c>
       <c r="G29">
-        <v>0.5257195345988978</v>
+        <v>0.575015309246785</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1115,7 +1115,7 @@
         <v>19</v>
       </c>
       <c r="D30">
-        <v>0.737</v>
+        <v>0.727</v>
       </c>
       <c r="E30">
         <v>0.628</v>
@@ -1124,7 +1124,7 @@
         <v>8</v>
       </c>
       <c r="G30">
-        <v>0.5480710349050827</v>
+        <v>0.5759338640538886</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1138,16 +1138,16 @@
         <v>19</v>
       </c>
       <c r="D31">
-        <v>0.759</v>
+        <v>0.743</v>
       </c>
       <c r="E31">
-        <v>0.632</v>
+        <v>0.639</v>
       </c>
       <c r="F31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G31">
-        <v>0.5315370483772198</v>
+        <v>0.5673606858542559</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1161,16 +1161,16 @@
         <v>19</v>
       </c>
       <c r="D32">
-        <v>0.778</v>
+        <v>0.764</v>
       </c>
       <c r="E32">
-        <v>0.635</v>
+        <v>0.646</v>
       </c>
       <c r="F32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>0.5174525413349663</v>
+        <v>0.5780771586037967</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1184,16 +1184,16 @@
         <v>19</v>
       </c>
       <c r="D33">
-        <v>0.8090000000000001</v>
+        <v>0.781</v>
       </c>
       <c r="E33">
-        <v>0.64</v>
+        <v>0.649</v>
       </c>
       <c r="F33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G33">
-        <v>0.5202082057562768</v>
+        <v>0.5688916105327618</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1207,16 +1207,16 @@
         <v>19</v>
       </c>
       <c r="D34">
-        <v>0.738</v>
+        <v>0.73</v>
       </c>
       <c r="E34">
-        <v>0.63</v>
+        <v>0.635</v>
       </c>
       <c r="F34">
         <v>8</v>
       </c>
       <c r="G34">
-        <v>0.5554194733619106</v>
+        <v>0.5740967544396816</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1230,16 +1230,16 @@
         <v>19</v>
       </c>
       <c r="D35">
-        <v>0.759</v>
+        <v>0.751</v>
       </c>
       <c r="E35">
-        <v>0.633</v>
+        <v>0.643</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G35">
-        <v>0.5284751990202082</v>
+        <v>0.5673606858542559</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1253,16 +1253,16 @@
         <v>19</v>
       </c>
       <c r="D36">
-        <v>0.784</v>
+        <v>0.767</v>
       </c>
       <c r="E36">
-        <v>0.638</v>
+        <v>0.647</v>
       </c>
       <c r="F36">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G36">
-        <v>0.522657685241886</v>
+        <v>0.5832823025107164</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1276,16 +1276,16 @@
         <v>19</v>
       </c>
       <c r="D37">
-        <v>0.8159999999999999</v>
+        <v>0.787</v>
       </c>
       <c r="E37">
-        <v>0.64</v>
+        <v>0.653</v>
       </c>
       <c r="F37">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>0.5122473974280466</v>
+        <v>0.5673606858542559</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1299,16 +1299,16 @@
         <v>19</v>
       </c>
       <c r="D38">
-        <v>0.751</v>
+        <v>0.736</v>
       </c>
       <c r="E38">
-        <v>0.629</v>
+        <v>0.635</v>
       </c>
       <c r="F38">
         <v>9</v>
       </c>
       <c r="G38">
-        <v>0.5370483772198408</v>
+        <v>0.5808328230251072</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1322,16 +1322,16 @@
         <v>19</v>
       </c>
       <c r="D39">
-        <v>0.776</v>
+        <v>0.756</v>
       </c>
       <c r="E39">
-        <v>0.637</v>
+        <v>0.644</v>
       </c>
       <c r="F39">
         <v>16</v>
       </c>
       <c r="G39">
-        <v>0.530006123698714</v>
+        <v>0.5646050214329456</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1345,16 +1345,16 @@
         <v>19</v>
       </c>
       <c r="D40">
-        <v>0.792</v>
+        <v>0.775</v>
       </c>
       <c r="E40">
-        <v>0.642</v>
+        <v>0.649</v>
       </c>
       <c r="F40">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G40">
-        <v>0.5205143906919779</v>
+        <v>0.5802204531537049</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1368,16 +1368,16 @@
         <v>19</v>
       </c>
       <c r="D41">
-        <v>0.819</v>
+        <v>0.795</v>
       </c>
       <c r="E41">
-        <v>0.642</v>
+        <v>0.653</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G41">
-        <v>0.5082669932639314</v>
+        <v>0.5621555419473362</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1391,16 +1391,16 @@
         <v>19</v>
       </c>
       <c r="D42">
-        <v>0.756</v>
+        <v>0.743</v>
       </c>
       <c r="E42">
-        <v>0.632</v>
+        <v>0.639</v>
       </c>
       <c r="F42">
         <v>10</v>
       </c>
       <c r="G42">
-        <v>0.5339865278628292</v>
+        <v>0.5731781996325781</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1414,16 +1414,16 @@
         <v>19</v>
       </c>
       <c r="D43">
-        <v>0.786</v>
+        <v>0.765</v>
       </c>
       <c r="E43">
-        <v>0.64</v>
+        <v>0.648</v>
       </c>
       <c r="F43">
         <v>16</v>
       </c>
       <c r="G43">
-        <v>0.5278628291488059</v>
+        <v>0.5701163502755664</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1437,16 +1437,16 @@
         <v>19</v>
       </c>
       <c r="D44">
-        <v>0.804</v>
+        <v>0.783</v>
       </c>
       <c r="E44">
-        <v>0.644</v>
+        <v>0.654</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G44">
-        <v>0.5094917330067361</v>
+        <v>0.5820575627679119</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1460,16 +1460,16 @@
         <v>19</v>
       </c>
       <c r="D45">
-        <v>0.833</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="E45">
-        <v>0.645</v>
+        <v>0.656</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>0.4874464176362523</v>
+        <v>0.546846295162278</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1483,16 +1483,16 @@
         <v>19</v>
       </c>
       <c r="D46">
-        <v>0.769</v>
+        <v>0.752</v>
       </c>
       <c r="E46">
-        <v>0.641</v>
+        <v>0.644</v>
       </c>
       <c r="F46">
         <v>12</v>
       </c>
       <c r="G46">
-        <v>0.5379669320269442</v>
+        <v>0.5725658297611758</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1506,16 +1506,16 @@
         <v>19</v>
       </c>
       <c r="D47">
-        <v>0.802</v>
+        <v>0.778</v>
       </c>
       <c r="E47">
-        <v>0.644</v>
+        <v>0.649</v>
       </c>
       <c r="F47">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G47">
-        <v>0.518677281077771</v>
+        <v>0.5676668707899571</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1529,16 +1529,16 @@
         <v>19</v>
       </c>
       <c r="D48">
-        <v>0.822</v>
+        <v>0.797</v>
       </c>
       <c r="E48">
-        <v>0.646</v>
+        <v>0.657</v>
       </c>
       <c r="F48">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G48">
-        <v>0.484996938150643</v>
+        <v>0.5639926515615432</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1552,16 +1552,16 @@
         <v>19</v>
       </c>
       <c r="D49">
-        <v>0.849</v>
+        <v>0.819</v>
       </c>
       <c r="E49">
-        <v>0.648</v>
+        <v>0.659</v>
       </c>
       <c r="F49">
         <v>31</v>
       </c>
       <c r="G49">
-        <v>0.4611145131659523</v>
+        <v>0.533680342927128</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_results_lasso_SMOTE.xlsx
+++ b/xgb_results_lasso_SMOTE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="22">
   <si>
     <t>Trees</t>
   </si>
@@ -34,7 +34,13 @@
     <t>num_vars</t>
   </si>
   <si>
+    <t>Pos Accuracy</t>
+  </si>
+  <si>
     <t>Neg Accuracy</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>2</t>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,42 +465,54 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.671</v>
+        <v>0.67</v>
       </c>
       <c r="E2">
-        <v>0.599</v>
+        <v>0.598</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0.5590936925903246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.601</v>
+      </c>
+      <c r="H2">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="I2">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3">
-        <v>0.699</v>
+        <v>0.698</v>
       </c>
       <c r="E3">
         <v>0.621</v>
@@ -503,90 +521,114 @@
         <v>7</v>
       </c>
       <c r="G3">
-        <v>0.5600122473974281</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.609</v>
+      </c>
+      <c r="H3">
+        <v>0.552</v>
+      </c>
+      <c r="I3">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>0.717</v>
+        <v>0.712</v>
       </c>
       <c r="E4">
-        <v>0.627</v>
+        <v>0.625</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0.629210042865891</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.608</v>
+      </c>
+      <c r="H4">
+        <v>0.583</v>
+      </c>
+      <c r="I4">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0.736</v>
+      </c>
+      <c r="E5">
+        <v>0.633</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>0.597</v>
+      </c>
+      <c r="H5">
+        <v>0.583</v>
+      </c>
+      <c r="I5">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>0.732</v>
-      </c>
-      <c r="E5">
-        <v>0.629</v>
-      </c>
-      <c r="F5">
-        <v>15</v>
-      </c>
-      <c r="G5">
-        <v>0.5731781996325781</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>0.68</v>
+        <v>0.671</v>
       </c>
       <c r="E6">
-        <v>0.605</v>
+        <v>0.598</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>0.5364360073484384</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.601</v>
+      </c>
+      <c r="H6">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>0.71</v>
+        <v>0.701</v>
       </c>
       <c r="E7">
         <v>0.621</v>
@@ -595,662 +637,836 @@
         <v>8</v>
       </c>
       <c r="G7">
-        <v>0.5290875688916106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.546</v>
+      </c>
+      <c r="H7">
+        <v>0.614</v>
+      </c>
+      <c r="I7">
+        <v>0.259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="E8">
-        <v>0.629</v>
+        <v>0.63</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0.6175750153092467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.555</v>
+      </c>
+      <c r="H8">
+        <v>0.644</v>
+      </c>
+      <c r="I8">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>0.746</v>
+      </c>
+      <c r="E9">
+        <v>0.64</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>0.615</v>
+      </c>
+      <c r="H9">
+        <v>0.574</v>
+      </c>
+      <c r="I9">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.609</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>0.628</v>
+      </c>
+      <c r="H10">
+        <v>0.541</v>
+      </c>
+      <c r="I10">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>0.744</v>
-      </c>
-      <c r="E9">
-        <v>0.633</v>
-      </c>
-      <c r="F9">
-        <v>16</v>
-      </c>
-      <c r="G9">
-        <v>0.5930802204531537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
-        <v>0.694</v>
-      </c>
-      <c r="E10">
-        <v>0.616</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>0.5263319044703001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>0.712</v>
+        <v>0.703</v>
       </c>
       <c r="E11">
-        <v>0.623</v>
+        <v>0.622</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <v>0.5835884874464177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.595</v>
+      </c>
+      <c r="H11">
+        <v>0.569</v>
+      </c>
+      <c r="I11">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>0.727</v>
+        <v>0.73</v>
       </c>
       <c r="E12">
-        <v>0.633</v>
+        <v>0.636</v>
       </c>
       <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0.57</v>
+      </c>
+      <c r="H12">
+        <v>0.617</v>
+      </c>
+      <c r="I12">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0.756</v>
+      </c>
+      <c r="E13">
+        <v>0.64</v>
+      </c>
+      <c r="F13">
+        <v>22</v>
+      </c>
+      <c r="G13">
+        <v>0.608</v>
+      </c>
+      <c r="H13">
+        <v>0.583</v>
+      </c>
+      <c r="I13">
+        <v>0.273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>0.618</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>0.579</v>
+      </c>
+      <c r="H14">
+        <v>0.588</v>
+      </c>
+      <c r="I14">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0.71</v>
+      </c>
+      <c r="E15">
+        <v>0.627</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>0.587</v>
+      </c>
+      <c r="H15">
+        <v>0.581</v>
+      </c>
+      <c r="I15">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>0.734</v>
+      </c>
+      <c r="E16">
+        <v>0.637</v>
+      </c>
+      <c r="F16">
         <v>13</v>
       </c>
-      <c r="G12">
-        <v>0.6313533374157991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="G16">
+        <v>0.588</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17">
+        <v>0.758</v>
+      </c>
+      <c r="E17">
+        <v>0.641</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>0.616</v>
+      </c>
+      <c r="H17">
+        <v>0.578</v>
+      </c>
+      <c r="I17">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0.7</v>
+      </c>
+      <c r="E18">
+        <v>0.618</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>0.612</v>
+      </c>
+      <c r="H18">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>0.75</v>
-      </c>
-      <c r="E13">
-        <v>0.635</v>
-      </c>
-      <c r="F13">
-        <v>19</v>
-      </c>
-      <c r="G13">
-        <v>0.5783833435394978</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>0.6929999999999999</v>
-      </c>
-      <c r="E14">
-        <v>0.614</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="G14">
-        <v>0.5554194733619106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
-        <v>0.712</v>
-      </c>
-      <c r="E15">
-        <v>0.623</v>
-      </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
-        <v>0.5315370483772198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16">
-        <v>0.736</v>
-      </c>
-      <c r="E16">
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19">
+        <v>0.728</v>
+      </c>
+      <c r="E19">
         <v>0.634</v>
       </c>
-      <c r="F16">
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>0.61</v>
+      </c>
+      <c r="H19">
+        <v>0.57</v>
+      </c>
+      <c r="I19">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20">
+        <v>0.747</v>
+      </c>
+      <c r="E20">
+        <v>0.638</v>
+      </c>
+      <c r="F20">
         <v>14</v>
       </c>
-      <c r="G16">
-        <v>0.5627679118187385</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>0.754</v>
-      </c>
-      <c r="E17">
-        <v>0.638</v>
-      </c>
-      <c r="F17">
-        <v>20</v>
-      </c>
-      <c r="G17">
-        <v>0.5774647887323944</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>0.701</v>
-      </c>
-      <c r="E18">
-        <v>0.623</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="G18">
-        <v>0.5759338640538886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
-        <v>0.73</v>
-      </c>
-      <c r="E19">
-        <v>0.627</v>
-      </c>
-      <c r="F19">
-        <v>11</v>
-      </c>
-      <c r="G19">
-        <v>0.5202082057562768</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20">
-        <v>0.743</v>
-      </c>
-      <c r="E20">
-        <v>0.636</v>
-      </c>
-      <c r="F20">
-        <v>15</v>
-      </c>
       <c r="G20">
-        <v>0.6062461726883037</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.602</v>
+      </c>
+      <c r="H20">
+        <v>0.588</v>
+      </c>
+      <c r="I20">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>0.762</v>
+        <v>0.765</v>
       </c>
       <c r="E21">
-        <v>0.642</v>
+        <v>0.644</v>
       </c>
       <c r="F21">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G21">
-        <v>0.580526638089406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.612</v>
+      </c>
+      <c r="H21">
+        <v>0.585</v>
+      </c>
+      <c r="I21">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>0.717</v>
+        <v>0.709</v>
       </c>
       <c r="E22">
-        <v>0.627</v>
+        <v>0.624</v>
       </c>
       <c r="F22">
         <v>8</v>
       </c>
       <c r="G22">
-        <v>0.5569503980404165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.602</v>
+      </c>
+      <c r="H22">
+        <v>0.569</v>
+      </c>
+      <c r="I22">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>0.733</v>
+      </c>
+      <c r="E23">
+        <v>0.637</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>0.606</v>
+      </c>
+      <c r="H23">
+        <v>0.575</v>
+      </c>
+      <c r="I23">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24">
+        <v>0.751</v>
+      </c>
+      <c r="E24">
+        <v>0.641</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>0.601</v>
+      </c>
+      <c r="H24">
+        <v>0.595</v>
+      </c>
+      <c r="I24">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>0.735</v>
-      </c>
-      <c r="E23">
-        <v>0.633</v>
-      </c>
-      <c r="F23">
-        <v>11</v>
-      </c>
-      <c r="G23">
-        <v>0.5535823637477036</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>0.755</v>
-      </c>
-      <c r="E24">
-        <v>0.643</v>
-      </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>0.5970606246172688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="E25">
         <v>0.644</v>
       </c>
       <c r="F25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25">
-        <v>0.5725658297611758</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.616</v>
+      </c>
+      <c r="H25">
+        <v>0.577</v>
+      </c>
+      <c r="I25">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>0.722</v>
+        <v>0.714</v>
       </c>
       <c r="E26">
-        <v>0.63</v>
+        <v>0.632</v>
       </c>
       <c r="F26">
         <v>8</v>
       </c>
       <c r="G26">
-        <v>0.5731781996325781</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.584</v>
+      </c>
+      <c r="H26">
+        <v>0.589</v>
+      </c>
+      <c r="I26">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0.742</v>
       </c>
       <c r="E27">
-        <v>0.639</v>
+        <v>0.64</v>
       </c>
       <c r="F27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>0.5496019595835885</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.612</v>
+      </c>
+      <c r="H27">
+        <v>0.576</v>
+      </c>
+      <c r="I27">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="E28">
         <v>0.643</v>
       </c>
       <c r="F28">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28">
-        <v>0.5946111451316595</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.596</v>
+      </c>
+      <c r="H28">
+        <v>0.604</v>
+      </c>
+      <c r="I28">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <v>0.774</v>
       </c>
       <c r="E29">
-        <v>0.645</v>
+        <v>0.646</v>
       </c>
       <c r="F29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G29">
-        <v>0.575015309246785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.618</v>
+      </c>
+      <c r="H29">
+        <v>0.584</v>
+      </c>
+      <c r="I29">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>0.727</v>
+        <v>0.716</v>
       </c>
       <c r="E30">
-        <v>0.628</v>
+        <v>0.631</v>
       </c>
       <c r="F30">
         <v>8</v>
       </c>
       <c r="G30">
-        <v>0.5759338640538886</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.581</v>
+      </c>
+      <c r="H30">
+        <v>0.593</v>
+      </c>
+      <c r="I30">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>0.743</v>
       </c>
       <c r="E31">
-        <v>0.639</v>
+        <v>0.641</v>
       </c>
       <c r="F31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>0.5673606858542559</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.606</v>
+      </c>
+      <c r="H31">
+        <v>0.583</v>
+      </c>
+      <c r="I31">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="E32">
-        <v>0.646</v>
+        <v>0.647</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G32">
-        <v>0.5780771586037967</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.613</v>
+      </c>
+      <c r="H32">
+        <v>0.589</v>
+      </c>
+      <c r="I32">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>0.781</v>
       </c>
       <c r="E33">
-        <v>0.649</v>
+        <v>0.651</v>
       </c>
       <c r="F33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>0.5688916105327618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.628</v>
+      </c>
+      <c r="H33">
+        <v>0.581</v>
+      </c>
+      <c r="I33">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>0.73</v>
+        <v>0.723</v>
       </c>
       <c r="E34">
-        <v>0.635</v>
+        <v>0.634</v>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>0.5740967544396816</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.588</v>
+      </c>
+      <c r="H34">
+        <v>0.59</v>
+      </c>
+      <c r="I34">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D35">
-        <v>0.751</v>
+        <v>0.749</v>
       </c>
       <c r="E35">
-        <v>0.643</v>
+        <v>0.645</v>
       </c>
       <c r="F35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35">
-        <v>0.5673606858542559</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.614</v>
+      </c>
+      <c r="H35">
+        <v>0.575</v>
+      </c>
+      <c r="I35">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>0.767</v>
@@ -1259,309 +1475,393 @@
         <v>0.647</v>
       </c>
       <c r="F36">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G36">
-        <v>0.5832823025107164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.613</v>
+      </c>
+      <c r="H36">
+        <v>0.592</v>
+      </c>
+      <c r="I36">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37">
+        <v>0.785</v>
+      </c>
+      <c r="E37">
+        <v>0.652</v>
+      </c>
+      <c r="F37">
+        <v>29</v>
+      </c>
+      <c r="G37">
+        <v>0.63</v>
+      </c>
+      <c r="H37">
+        <v>0.575</v>
+      </c>
+      <c r="I37">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38">
+        <v>0.725</v>
+      </c>
+      <c r="E38">
+        <v>0.637</v>
+      </c>
+      <c r="F38">
+        <v>9</v>
+      </c>
+      <c r="G38">
+        <v>0.594</v>
+      </c>
+      <c r="H38">
+        <v>0.581</v>
+      </c>
+      <c r="I38">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37">
-        <v>0.787</v>
-      </c>
-      <c r="E37">
-        <v>0.653</v>
-      </c>
-      <c r="F37">
-        <v>30</v>
-      </c>
-      <c r="G37">
-        <v>0.5673606858542559</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38">
-        <v>0.736</v>
-      </c>
-      <c r="E38">
-        <v>0.635</v>
-      </c>
-      <c r="F38">
-        <v>9</v>
-      </c>
-      <c r="G38">
-        <v>0.5808328230251072</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="E39">
-        <v>0.644</v>
+        <v>0.647</v>
       </c>
       <c r="F39">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G39">
-        <v>0.5646050214329456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.621</v>
+      </c>
+      <c r="H39">
+        <v>0.577</v>
+      </c>
+      <c r="I39">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D40">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="E40">
-        <v>0.649</v>
+        <v>0.65</v>
       </c>
       <c r="F40">
         <v>23</v>
       </c>
       <c r="G40">
-        <v>0.5802204531537049</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.628</v>
+      </c>
+      <c r="H40">
+        <v>0.582</v>
+      </c>
+      <c r="I40">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D41">
-        <v>0.795</v>
+        <v>0.794</v>
       </c>
       <c r="E41">
         <v>0.653</v>
       </c>
       <c r="F41">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G41">
-        <v>0.5621555419473362</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.635</v>
+      </c>
+      <c r="H41">
+        <v>0.571</v>
+      </c>
+      <c r="I41">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>0.732</v>
+      </c>
+      <c r="E42">
+        <v>0.64</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+      <c r="G42">
+        <v>0.611</v>
+      </c>
+      <c r="H42">
+        <v>0.569</v>
+      </c>
+      <c r="I42">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>0.762</v>
+      </c>
+      <c r="E43">
+        <v>0.651</v>
+      </c>
+      <c r="F43">
         <v>17</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="G43">
+        <v>0.634</v>
+      </c>
+      <c r="H43">
+        <v>0.573</v>
+      </c>
+      <c r="I43">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>19</v>
       </c>
-      <c r="D42">
-        <v>0.743</v>
-      </c>
-      <c r="E42">
-        <v>0.639</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
-      </c>
-      <c r="G42">
-        <v>0.5731781996325781</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43">
-        <v>0.765</v>
-      </c>
-      <c r="E43">
-        <v>0.648</v>
-      </c>
-      <c r="F43">
-        <v>16</v>
-      </c>
-      <c r="G43">
-        <v>0.5701163502755664</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>17</v>
-      </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>0.783</v>
       </c>
       <c r="E44">
+        <v>0.653</v>
+      </c>
+      <c r="F44">
+        <v>24</v>
+      </c>
+      <c r="G44">
+        <v>0.636</v>
+      </c>
+      <c r="H44">
+        <v>0.58</v>
+      </c>
+      <c r="I44">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45">
+        <v>0.805</v>
+      </c>
+      <c r="E45">
+        <v>0.659</v>
+      </c>
+      <c r="F45">
+        <v>30</v>
+      </c>
+      <c r="G45">
         <v>0.654</v>
       </c>
-      <c r="F44">
-        <v>27</v>
-      </c>
-      <c r="G44">
-        <v>0.5820575627679119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45">
-        <v>0.8080000000000001</v>
-      </c>
-      <c r="E45">
-        <v>0.656</v>
-      </c>
-      <c r="F45">
-        <v>31</v>
-      </c>
-      <c r="G45">
-        <v>0.546846295162278</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I45">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D46">
-        <v>0.752</v>
+        <v>0.743</v>
       </c>
       <c r="E46">
-        <v>0.644</v>
+        <v>0.648</v>
       </c>
       <c r="F46">
         <v>12</v>
       </c>
       <c r="G46">
-        <v>0.5725658297611758</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.623</v>
+      </c>
+      <c r="H46">
+        <v>0.578</v>
+      </c>
+      <c r="I46">
+        <v>0.277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="E47">
-        <v>0.649</v>
+        <v>0.656</v>
       </c>
       <c r="F47">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G47">
-        <v>0.5676668707899571</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.642</v>
+      </c>
+      <c r="H47">
+        <v>0.576</v>
+      </c>
+      <c r="I47">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D48">
-        <v>0.797</v>
+        <v>0.804</v>
       </c>
       <c r="E48">
-        <v>0.657</v>
+        <v>0.655</v>
       </c>
       <c r="F48">
         <v>28</v>
       </c>
       <c r="G48">
-        <v>0.5639926515615432</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.659</v>
+      </c>
+      <c r="H48">
+        <v>0.554</v>
+      </c>
+      <c r="I48">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D49">
-        <v>0.819</v>
+        <v>0.821</v>
       </c>
       <c r="E49">
-        <v>0.659</v>
+        <v>0.661</v>
       </c>
       <c r="F49">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G49">
-        <v>0.533680342927128</v>
+        <v>0.678</v>
+      </c>
+      <c r="H49">
+        <v>0.539</v>
+      </c>
+      <c r="I49">
+        <v>0.287</v>
       </c>
     </row>
   </sheetData>

--- a/xgb_results_lasso_SMOTE.xlsx
+++ b/xgb_results_lasso_SMOTE.xlsx
@@ -483,10 +483,10 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>0.67</v>
+        <v>0.671</v>
       </c>
       <c r="E2">
-        <v>0.598</v>
+        <v>0.6</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -495,7 +495,7 @@
         <v>0.601</v>
       </c>
       <c r="H2">
-        <v>0.5590000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I2">
         <v>0.26</v>
@@ -512,22 +512,22 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>0.698</v>
+        <v>0.697</v>
       </c>
       <c r="E3">
-        <v>0.621</v>
+        <v>0.619</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>0.609</v>
+        <v>0.607</v>
       </c>
       <c r="H3">
-        <v>0.552</v>
+        <v>0.555</v>
       </c>
       <c r="I3">
-        <v>0.26</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -541,22 +541,22 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>0.712</v>
+        <v>0.717</v>
       </c>
       <c r="E4">
-        <v>0.625</v>
+        <v>0.631</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
       <c r="G4">
-        <v>0.608</v>
+        <v>0.638</v>
       </c>
       <c r="H4">
-        <v>0.583</v>
+        <v>0.529</v>
       </c>
       <c r="I4">
-        <v>0.272</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -570,19 +570,19 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="E5">
-        <v>0.633</v>
+        <v>0.634</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5">
-        <v>0.597</v>
+        <v>0.609</v>
       </c>
       <c r="H5">
-        <v>0.583</v>
+        <v>0.57</v>
       </c>
       <c r="I5">
         <v>0.268</v>
@@ -599,19 +599,19 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0.671</v>
+        <v>0.672</v>
       </c>
       <c r="E6">
-        <v>0.598</v>
+        <v>0.6</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
       <c r="G6">
-        <v>0.601</v>
+        <v>0.603</v>
       </c>
       <c r="H6">
-        <v>0.5590000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I6">
         <v>0.26</v>
@@ -628,22 +628,22 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>0.701</v>
+        <v>0.708</v>
       </c>
       <c r="E7">
-        <v>0.621</v>
+        <v>0.624</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>0.546</v>
+        <v>0.701</v>
       </c>
       <c r="H7">
-        <v>0.614</v>
+        <v>0.47</v>
       </c>
       <c r="I7">
-        <v>0.259</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -657,22 +657,22 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="E8">
-        <v>0.63</v>
+        <v>0.637</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>0.555</v>
+        <v>0.618</v>
       </c>
       <c r="H8">
-        <v>0.644</v>
+        <v>0.573</v>
       </c>
       <c r="I8">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -686,19 +686,19 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="E9">
-        <v>0.64</v>
+        <v>0.638</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9">
-        <v>0.615</v>
+        <v>0.616</v>
       </c>
       <c r="H9">
-        <v>0.574</v>
+        <v>0.573</v>
       </c>
       <c r="I9">
         <v>0.272</v>
@@ -715,22 +715,22 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.6899999999999999</v>
+        <v>0.676</v>
       </c>
       <c r="E10">
-        <v>0.609</v>
+        <v>0.602</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>0.628</v>
+        <v>0.601</v>
       </c>
       <c r="H10">
-        <v>0.541</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I10">
-        <v>0.264</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -744,22 +744,22 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>0.703</v>
+        <v>0.708</v>
       </c>
       <c r="E11">
-        <v>0.622</v>
+        <v>0.624</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <v>0.595</v>
+        <v>0.624</v>
       </c>
       <c r="H11">
-        <v>0.569</v>
+        <v>0.541</v>
       </c>
       <c r="I11">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -776,19 +776,19 @@
         <v>0.73</v>
       </c>
       <c r="E12">
-        <v>0.636</v>
+        <v>0.635</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G12">
-        <v>0.57</v>
+        <v>0.601</v>
       </c>
       <c r="H12">
-        <v>0.617</v>
+        <v>0.587</v>
       </c>
       <c r="I12">
-        <v>0.27</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -802,22 +802,22 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>0.756</v>
+        <v>0.747</v>
       </c>
       <c r="E13">
-        <v>0.64</v>
+        <v>0.638</v>
       </c>
       <c r="F13">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13">
-        <v>0.608</v>
+        <v>0.615</v>
       </c>
       <c r="H13">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="I13">
-        <v>0.273</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -831,22 +831,22 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>0.7</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="E14">
-        <v>0.618</v>
+        <v>0.609</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>0.579</v>
+        <v>0.601</v>
       </c>
       <c r="H14">
-        <v>0.588</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I14">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -860,19 +860,19 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>0.71</v>
+        <v>0.711</v>
       </c>
       <c r="E15">
-        <v>0.627</v>
+        <v>0.624</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>0.587</v>
+        <v>0.579</v>
       </c>
       <c r="H15">
-        <v>0.581</v>
+        <v>0.588</v>
       </c>
       <c r="I15">
         <v>0.263</v>
@@ -889,22 +889,22 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>0.734</v>
+        <v>0.737</v>
       </c>
       <c r="E16">
         <v>0.637</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>0.588</v>
+        <v>0.604</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.578</v>
       </c>
       <c r="I16">
-        <v>0.271</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -918,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>0.758</v>
+        <v>0.755</v>
       </c>
       <c r="E17">
         <v>0.641</v>
@@ -927,10 +927,10 @@
         <v>24</v>
       </c>
       <c r="G17">
-        <v>0.616</v>
+        <v>0.609</v>
       </c>
       <c r="H17">
-        <v>0.578</v>
+        <v>0.587</v>
       </c>
       <c r="I17">
         <v>0.274</v>
@@ -947,22 +947,22 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>0.7</v>
+        <v>0.697</v>
       </c>
       <c r="E18">
         <v>0.618</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G18">
-        <v>0.612</v>
+        <v>0.634</v>
       </c>
       <c r="H18">
-        <v>0.5580000000000001</v>
+        <v>0.532</v>
       </c>
       <c r="I18">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -976,22 +976,22 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>0.728</v>
+        <v>0.72</v>
       </c>
       <c r="E19">
-        <v>0.634</v>
+        <v>0.629</v>
       </c>
       <c r="F19">
         <v>9</v>
       </c>
       <c r="G19">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="H19">
-        <v>0.57</v>
+        <v>0.555</v>
       </c>
       <c r="I19">
-        <v>0.268</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1005,22 +1005,22 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>0.747</v>
+        <v>0.742</v>
       </c>
       <c r="E20">
-        <v>0.638</v>
+        <v>0.637</v>
       </c>
       <c r="F20">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>0.602</v>
+        <v>0.598</v>
       </c>
       <c r="H20">
-        <v>0.588</v>
+        <v>0.595</v>
       </c>
       <c r="I20">
-        <v>0.272</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1034,22 +1034,22 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>0.765</v>
+        <v>0.759</v>
       </c>
       <c r="E21">
         <v>0.644</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>0.612</v>
+        <v>0.617</v>
       </c>
       <c r="H21">
-        <v>0.585</v>
+        <v>0.587</v>
       </c>
       <c r="I21">
-        <v>0.275</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1063,22 +1063,22 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0.709</v>
+        <v>0.703</v>
       </c>
       <c r="E22">
-        <v>0.624</v>
+        <v>0.625</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>0.602</v>
+        <v>0.632</v>
       </c>
       <c r="H22">
-        <v>0.569</v>
+        <v>0.539</v>
       </c>
       <c r="I22">
-        <v>0.264</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>0.733</v>
+        <v>0.732</v>
       </c>
       <c r="E23">
-        <v>0.637</v>
+        <v>0.636</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>0.606</v>
+        <v>0.648</v>
       </c>
       <c r="H23">
-        <v>0.575</v>
+        <v>0.532</v>
       </c>
       <c r="I23">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1121,22 +1121,22 @@
         <v>21</v>
       </c>
       <c r="D24">
-        <v>0.751</v>
+        <v>0.753</v>
       </c>
       <c r="E24">
-        <v>0.641</v>
+        <v>0.643</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G24">
-        <v>0.601</v>
+        <v>0.614</v>
       </c>
       <c r="H24">
-        <v>0.595</v>
+        <v>0.578</v>
       </c>
       <c r="I24">
-        <v>0.274</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1150,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="E25">
         <v>0.644</v>
@@ -1159,13 +1159,13 @@
         <v>26</v>
       </c>
       <c r="G25">
-        <v>0.616</v>
+        <v>0.622</v>
       </c>
       <c r="H25">
-        <v>0.577</v>
+        <v>0.584</v>
       </c>
       <c r="I25">
-        <v>0.274</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1179,22 +1179,22 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>0.714</v>
+        <v>0.711</v>
       </c>
       <c r="E26">
-        <v>0.632</v>
+        <v>0.628</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>0.584</v>
+        <v>0.619</v>
       </c>
       <c r="H26">
-        <v>0.589</v>
+        <v>0.556</v>
       </c>
       <c r="I26">
-        <v>0.265</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1208,22 +1208,22 @@
         <v>21</v>
       </c>
       <c r="D27">
-        <v>0.742</v>
+        <v>0.735</v>
       </c>
       <c r="E27">
-        <v>0.64</v>
+        <v>0.635</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>0.612</v>
+        <v>0.646</v>
       </c>
       <c r="H27">
-        <v>0.576</v>
+        <v>0.536</v>
       </c>
       <c r="I27">
-        <v>0.271</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1237,22 +1237,22 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="E28">
-        <v>0.643</v>
+        <v>0.644</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28">
-        <v>0.596</v>
+        <v>0.615</v>
       </c>
       <c r="H28">
-        <v>0.604</v>
+        <v>0.579</v>
       </c>
       <c r="I28">
-        <v>0.276</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1266,22 +1266,22 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="E29">
-        <v>0.646</v>
+        <v>0.644</v>
       </c>
       <c r="F29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>0.618</v>
+        <v>0.622</v>
       </c>
       <c r="H29">
-        <v>0.584</v>
+        <v>0.576</v>
       </c>
       <c r="I29">
-        <v>0.277</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1295,22 +1295,22 @@
         <v>21</v>
       </c>
       <c r="D30">
-        <v>0.716</v>
+        <v>0.714</v>
       </c>
       <c r="E30">
-        <v>0.631</v>
+        <v>0.634</v>
       </c>
       <c r="F30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>0.581</v>
+        <v>0.594</v>
       </c>
       <c r="H30">
-        <v>0.593</v>
+        <v>0.584</v>
       </c>
       <c r="I30">
-        <v>0.265</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1324,22 +1324,22 @@
         <v>21</v>
       </c>
       <c r="D31">
-        <v>0.743</v>
+        <v>0.737</v>
       </c>
       <c r="E31">
-        <v>0.641</v>
+        <v>0.637</v>
       </c>
       <c r="F31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0.606</v>
+        <v>0.618</v>
       </c>
       <c r="H31">
-        <v>0.583</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="I31">
-        <v>0.272</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1353,22 +1353,22 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="E32">
-        <v>0.647</v>
+        <v>0.648</v>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G32">
-        <v>0.613</v>
+        <v>0.625</v>
       </c>
       <c r="H32">
-        <v>0.589</v>
+        <v>0.572</v>
       </c>
       <c r="I32">
-        <v>0.277</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1382,22 +1382,22 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="E33">
-        <v>0.651</v>
+        <v>0.647</v>
       </c>
       <c r="F33">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>0.628</v>
+        <v>0.629</v>
       </c>
       <c r="H33">
-        <v>0.581</v>
+        <v>0.574</v>
       </c>
       <c r="I33">
-        <v>0.281</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1411,22 +1411,22 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>0.723</v>
+        <v>0.72</v>
       </c>
       <c r="E34">
-        <v>0.634</v>
+        <v>0.633</v>
       </c>
       <c r="F34">
         <v>9</v>
       </c>
       <c r="G34">
+        <v>0.587</v>
+      </c>
+      <c r="H34">
         <v>0.588</v>
       </c>
-      <c r="H34">
-        <v>0.59</v>
-      </c>
       <c r="I34">
-        <v>0.267</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1440,22 +1440,22 @@
         <v>21</v>
       </c>
       <c r="D35">
-        <v>0.749</v>
+        <v>0.745</v>
       </c>
       <c r="E35">
-        <v>0.645</v>
+        <v>0.64</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>0.614</v>
+        <v>0.64</v>
       </c>
       <c r="H35">
-        <v>0.575</v>
+        <v>0.546</v>
       </c>
       <c r="I35">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1469,22 +1469,22 @@
         <v>21</v>
       </c>
       <c r="D36">
-        <v>0.767</v>
+        <v>0.771</v>
       </c>
       <c r="E36">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
       <c r="F36">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G36">
-        <v>0.613</v>
+        <v>0.631</v>
       </c>
       <c r="H36">
-        <v>0.592</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I36">
-        <v>0.279</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1498,19 +1498,19 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="E37">
-        <v>0.652</v>
+        <v>0.651</v>
       </c>
       <c r="F37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G37">
-        <v>0.63</v>
+        <v>0.633</v>
       </c>
       <c r="H37">
-        <v>0.575</v>
+        <v>0.571</v>
       </c>
       <c r="I37">
         <v>0.279</v>
@@ -1527,22 +1527,22 @@
         <v>21</v>
       </c>
       <c r="D38">
-        <v>0.725</v>
+        <v>0.728</v>
       </c>
       <c r="E38">
-        <v>0.637</v>
+        <v>0.633</v>
       </c>
       <c r="F38">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G38">
-        <v>0.594</v>
+        <v>0.609</v>
       </c>
       <c r="H38">
-        <v>0.581</v>
+        <v>0.57</v>
       </c>
       <c r="I38">
-        <v>0.266</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1556,22 +1556,22 @@
         <v>21</v>
       </c>
       <c r="D39">
-        <v>0.753</v>
+        <v>0.758</v>
       </c>
       <c r="E39">
-        <v>0.647</v>
+        <v>0.644</v>
       </c>
       <c r="F39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39">
-        <v>0.621</v>
+        <v>0.644</v>
       </c>
       <c r="H39">
-        <v>0.577</v>
+        <v>0.543</v>
       </c>
       <c r="I39">
-        <v>0.276</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>21</v>
       </c>
       <c r="D40">
-        <v>0.774</v>
+        <v>0.777</v>
       </c>
       <c r="E40">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="F40">
         <v>23</v>
       </c>
       <c r="G40">
-        <v>0.628</v>
+        <v>0.636</v>
       </c>
       <c r="H40">
-        <v>0.582</v>
+        <v>0.57</v>
       </c>
       <c r="I40">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1614,22 +1614,22 @@
         <v>21</v>
       </c>
       <c r="D41">
-        <v>0.794</v>
+        <v>0.795</v>
       </c>
       <c r="E41">
-        <v>0.653</v>
+        <v>0.654</v>
       </c>
       <c r="F41">
         <v>30</v>
       </c>
       <c r="G41">
-        <v>0.635</v>
+        <v>0.644</v>
       </c>
       <c r="H41">
-        <v>0.571</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="I41">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1643,22 +1643,22 @@
         <v>21</v>
       </c>
       <c r="D42">
-        <v>0.732</v>
+        <v>0.735</v>
       </c>
       <c r="E42">
         <v>0.64</v>
       </c>
       <c r="F42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G42">
-        <v>0.611</v>
+        <v>0.612</v>
       </c>
       <c r="H42">
-        <v>0.569</v>
+        <v>0.57</v>
       </c>
       <c r="I42">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1672,22 +1672,22 @@
         <v>21</v>
       </c>
       <c r="D43">
-        <v>0.762</v>
+        <v>0.766</v>
       </c>
       <c r="E43">
-        <v>0.651</v>
+        <v>0.649</v>
       </c>
       <c r="F43">
         <v>17</v>
       </c>
       <c r="G43">
-        <v>0.634</v>
+        <v>0.644</v>
       </c>
       <c r="H43">
-        <v>0.573</v>
+        <v>0.552</v>
       </c>
       <c r="I43">
-        <v>0.28</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1701,22 +1701,22 @@
         <v>21</v>
       </c>
       <c r="D44">
-        <v>0.783</v>
+        <v>0.786</v>
       </c>
       <c r="E44">
-        <v>0.653</v>
+        <v>0.657</v>
       </c>
       <c r="F44">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G44">
-        <v>0.636</v>
+        <v>0.648</v>
       </c>
       <c r="H44">
-        <v>0.58</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="I44">
-        <v>0.284</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1730,19 +1730,19 @@
         <v>21</v>
       </c>
       <c r="D45">
-        <v>0.805</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E45">
-        <v>0.659</v>
+        <v>0.656</v>
       </c>
       <c r="F45">
         <v>30</v>
       </c>
       <c r="G45">
-        <v>0.654</v>
+        <v>0.662</v>
       </c>
       <c r="H45">
-        <v>0.5610000000000001</v>
+        <v>0.553</v>
       </c>
       <c r="I45">
         <v>0.285</v>
@@ -1762,19 +1762,19 @@
         <v>0.743</v>
       </c>
       <c r="E46">
-        <v>0.648</v>
+        <v>0.645</v>
       </c>
       <c r="F46">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G46">
-        <v>0.623</v>
+        <v>0.627</v>
       </c>
       <c r="H46">
-        <v>0.578</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I46">
-        <v>0.277</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1788,22 +1788,22 @@
         <v>21</v>
       </c>
       <c r="D47">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="E47">
-        <v>0.656</v>
+        <v>0.652</v>
       </c>
       <c r="F47">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G47">
-        <v>0.642</v>
+        <v>0.646</v>
       </c>
       <c r="H47">
-        <v>0.576</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="I47">
-        <v>0.285</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1817,22 +1817,22 @@
         <v>21</v>
       </c>
       <c r="D48">
-        <v>0.804</v>
+        <v>0.803</v>
       </c>
       <c r="E48">
-        <v>0.655</v>
+        <v>0.658</v>
       </c>
       <c r="F48">
         <v>28</v>
       </c>
       <c r="G48">
-        <v>0.659</v>
+        <v>0.667</v>
       </c>
       <c r="H48">
-        <v>0.554</v>
+        <v>0.545</v>
       </c>
       <c r="I48">
-        <v>0.284</v>
+        <v>0.285</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1849,16 +1849,16 @@
         <v>0.821</v>
       </c>
       <c r="E49">
-        <v>0.661</v>
+        <v>0.659</v>
       </c>
       <c r="F49">
         <v>32</v>
       </c>
       <c r="G49">
-        <v>0.678</v>
+        <v>0.672</v>
       </c>
       <c r="H49">
-        <v>0.539</v>
+        <v>0.546</v>
       </c>
       <c r="I49">
         <v>0.287</v>

--- a/xgb_results_lasso_SMOTE.xlsx
+++ b/xgb_results_lasso_SMOTE.xlsx
@@ -483,19 +483,19 @@
         <v>21</v>
       </c>
       <c r="D2">
-        <v>0.671</v>
+        <v>0.672</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>0.598</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0.601</v>
+        <v>0.662</v>
       </c>
       <c r="H2">
-        <v>0.5580000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="I2">
         <v>0.26</v>
@@ -512,22 +512,22 @@
         <v>21</v>
       </c>
       <c r="D3">
-        <v>0.697</v>
+        <v>0.699</v>
       </c>
       <c r="E3">
-        <v>0.619</v>
+        <v>0.622</v>
       </c>
       <c r="F3">
         <v>7</v>
       </c>
       <c r="G3">
-        <v>0.607</v>
+        <v>0.547</v>
       </c>
       <c r="H3">
-        <v>0.555</v>
+        <v>0.609</v>
       </c>
       <c r="I3">
-        <v>0.261</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -544,19 +544,19 @@
         <v>0.717</v>
       </c>
       <c r="E4">
-        <v>0.631</v>
+        <v>0.626</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>0.638</v>
+        <v>0.548</v>
       </c>
       <c r="H4">
-        <v>0.529</v>
+        <v>0.655</v>
       </c>
       <c r="I4">
-        <v>0.263</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -570,22 +570,22 @@
         <v>21</v>
       </c>
       <c r="D5">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="E5">
-        <v>0.634</v>
+        <v>0.635</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5">
-        <v>0.609</v>
+        <v>0.603</v>
       </c>
       <c r="H5">
-        <v>0.57</v>
+        <v>0.592</v>
       </c>
       <c r="I5">
-        <v>0.268</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -599,7 +599,7 @@
         <v>21</v>
       </c>
       <c r="D6">
-        <v>0.672</v>
+        <v>0.673</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -608,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>0.603</v>
+        <v>0.662</v>
       </c>
       <c r="H6">
-        <v>0.5570000000000001</v>
+        <v>0.498</v>
       </c>
       <c r="I6">
         <v>0.26</v>
@@ -628,22 +628,22 @@
         <v>21</v>
       </c>
       <c r="D7">
-        <v>0.708</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>0.624</v>
+        <v>0.617</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7">
-        <v>0.701</v>
+        <v>0.533</v>
       </c>
       <c r="H7">
-        <v>0.47</v>
+        <v>0.624</v>
       </c>
       <c r="I7">
-        <v>0.266</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -657,22 +657,22 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <v>0.73</v>
+        <v>0.721</v>
       </c>
       <c r="E8">
-        <v>0.637</v>
+        <v>0.632</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>0.618</v>
+        <v>0.54</v>
       </c>
       <c r="H8">
-        <v>0.573</v>
+        <v>0.656</v>
       </c>
       <c r="I8">
-        <v>0.273</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -686,22 +686,22 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0.745</v>
+        <v>0.744</v>
       </c>
       <c r="E9">
         <v>0.638</v>
       </c>
       <c r="F9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9">
-        <v>0.616</v>
+        <v>0.598</v>
       </c>
       <c r="H9">
-        <v>0.573</v>
+        <v>0.588</v>
       </c>
       <c r="I9">
-        <v>0.272</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -715,22 +715,22 @@
         <v>21</v>
       </c>
       <c r="D10">
-        <v>0.676</v>
+        <v>0.681</v>
       </c>
       <c r="E10">
-        <v>0.602</v>
+        <v>0.605</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
       <c r="G10">
-        <v>0.601</v>
+        <v>0.635</v>
       </c>
       <c r="H10">
-        <v>0.5580000000000001</v>
+        <v>0.529</v>
       </c>
       <c r="I10">
-        <v>0.26</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -744,22 +744,22 @@
         <v>21</v>
       </c>
       <c r="D11">
-        <v>0.708</v>
+        <v>0.704</v>
       </c>
       <c r="E11">
-        <v>0.624</v>
+        <v>0.622</v>
       </c>
       <c r="F11">
         <v>8</v>
       </c>
       <c r="G11">
-        <v>0.624</v>
+        <v>0.551</v>
       </c>
       <c r="H11">
-        <v>0.541</v>
+        <v>0.61</v>
       </c>
       <c r="I11">
-        <v>0.262</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -773,22 +773,22 @@
         <v>21</v>
       </c>
       <c r="D12">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="E12">
-        <v>0.635</v>
+        <v>0.634</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>0.601</v>
+        <v>0.572</v>
       </c>
       <c r="H12">
-        <v>0.587</v>
+        <v>0.608</v>
       </c>
       <c r="I12">
-        <v>0.271</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -802,22 +802,22 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="E13">
-        <v>0.638</v>
+        <v>0.64</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G13">
-        <v>0.615</v>
+        <v>0.602</v>
       </c>
       <c r="H13">
-        <v>0.574</v>
+        <v>0.593</v>
       </c>
       <c r="I13">
-        <v>0.272</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -831,22 +831,22 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>0.6889999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="E14">
-        <v>0.609</v>
+        <v>0.618</v>
       </c>
       <c r="F14">
         <v>7</v>
       </c>
       <c r="G14">
-        <v>0.601</v>
+        <v>0.648</v>
       </c>
       <c r="H14">
-        <v>0.5610000000000001</v>
+        <v>0.522</v>
       </c>
       <c r="I14">
-        <v>0.26</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -860,22 +860,22 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>0.711</v>
+        <v>0.708</v>
       </c>
       <c r="E15">
-        <v>0.624</v>
+        <v>0.625</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>0.579</v>
+        <v>0.55</v>
       </c>
       <c r="H15">
-        <v>0.588</v>
+        <v>0.611</v>
       </c>
       <c r="I15">
-        <v>0.263</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -889,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="D16">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="E16">
-        <v>0.637</v>
+        <v>0.638</v>
       </c>
       <c r="F16">
         <v>16</v>
@@ -901,10 +901,10 @@
         <v>0.604</v>
       </c>
       <c r="H16">
-        <v>0.578</v>
+        <v>0.591</v>
       </c>
       <c r="I16">
-        <v>0.269</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -918,22 +918,22 @@
         <v>21</v>
       </c>
       <c r="D17">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="E17">
-        <v>0.641</v>
+        <v>0.643</v>
       </c>
       <c r="F17">
         <v>24</v>
       </c>
       <c r="G17">
-        <v>0.609</v>
+        <v>0.61</v>
       </c>
       <c r="H17">
-        <v>0.587</v>
+        <v>0.594</v>
       </c>
       <c r="I17">
-        <v>0.274</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -947,22 +947,22 @@
         <v>21</v>
       </c>
       <c r="D18">
-        <v>0.697</v>
+        <v>0.699</v>
       </c>
       <c r="E18">
-        <v>0.618</v>
+        <v>0.621</v>
       </c>
       <c r="F18">
         <v>7</v>
       </c>
       <c r="G18">
-        <v>0.634</v>
+        <v>0.643</v>
       </c>
       <c r="H18">
-        <v>0.532</v>
+        <v>0.529</v>
       </c>
       <c r="I18">
-        <v>0.263</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -976,22 +976,22 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>0.72</v>
+        <v>0.726</v>
       </c>
       <c r="E19">
-        <v>0.629</v>
+        <v>0.634</v>
       </c>
       <c r="F19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>0.613</v>
+        <v>0.627</v>
       </c>
       <c r="H19">
-        <v>0.555</v>
+        <v>0.556</v>
       </c>
       <c r="I19">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1005,22 +1005,22 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>0.742</v>
+        <v>0.74</v>
       </c>
       <c r="E20">
-        <v>0.637</v>
+        <v>0.639</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>0.598</v>
+        <v>0.616</v>
       </c>
       <c r="H20">
-        <v>0.595</v>
+        <v>0.577</v>
       </c>
       <c r="I20">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1034,22 +1034,22 @@
         <v>21</v>
       </c>
       <c r="D21">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="E21">
-        <v>0.644</v>
+        <v>0.643</v>
       </c>
       <c r="F21">
         <v>25</v>
       </c>
       <c r="G21">
-        <v>0.617</v>
+        <v>0.622</v>
       </c>
       <c r="H21">
-        <v>0.587</v>
+        <v>0.575</v>
       </c>
       <c r="I21">
-        <v>0.278</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1063,19 +1063,19 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0.703</v>
+        <v>0.706</v>
       </c>
       <c r="E22">
-        <v>0.625</v>
+        <v>0.629</v>
       </c>
       <c r="F22">
         <v>7</v>
       </c>
       <c r="G22">
-        <v>0.632</v>
+        <v>0.631</v>
       </c>
       <c r="H22">
-        <v>0.539</v>
+        <v>0.54</v>
       </c>
       <c r="I22">
         <v>0.265</v>
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>0.732</v>
+        <v>0.728</v>
       </c>
       <c r="E23">
-        <v>0.636</v>
+        <v>0.637</v>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>0.648</v>
+        <v>0.62</v>
       </c>
       <c r="H23">
-        <v>0.532</v>
+        <v>0.57</v>
       </c>
       <c r="I23">
-        <v>0.269</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1121,22 +1121,22 @@
         <v>21</v>
       </c>
       <c r="D24">
-        <v>0.753</v>
+        <v>0.743</v>
       </c>
       <c r="E24">
-        <v>0.643</v>
+        <v>0.641</v>
       </c>
       <c r="F24">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G24">
-        <v>0.614</v>
+        <v>0.61</v>
       </c>
       <c r="H24">
-        <v>0.578</v>
+        <v>0.585</v>
       </c>
       <c r="I24">
-        <v>0.273</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1150,22 +1150,22 @@
         <v>21</v>
       </c>
       <c r="D25">
-        <v>0.766</v>
+        <v>0.767</v>
       </c>
       <c r="E25">
-        <v>0.644</v>
+        <v>0.646</v>
       </c>
       <c r="F25">
         <v>26</v>
       </c>
       <c r="G25">
-        <v>0.622</v>
+        <v>0.63</v>
       </c>
       <c r="H25">
-        <v>0.584</v>
+        <v>0.571</v>
       </c>
       <c r="I25">
-        <v>0.279</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1179,22 +1179,22 @@
         <v>21</v>
       </c>
       <c r="D26">
-        <v>0.711</v>
+        <v>0.712</v>
       </c>
       <c r="E26">
+        <v>0.632</v>
+      </c>
+      <c r="F26">
+        <v>8</v>
+      </c>
+      <c r="G26">
         <v>0.628</v>
       </c>
-      <c r="F26">
-        <v>9</v>
-      </c>
-      <c r="G26">
-        <v>0.619</v>
-      </c>
       <c r="H26">
-        <v>0.556</v>
+        <v>0.542</v>
       </c>
       <c r="I26">
-        <v>0.266</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1208,22 +1208,22 @@
         <v>21</v>
       </c>
       <c r="D27">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="E27">
-        <v>0.635</v>
+        <v>0.64</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G27">
-        <v>0.646</v>
+        <v>0.629</v>
       </c>
       <c r="H27">
-        <v>0.536</v>
+        <v>0.551</v>
       </c>
       <c r="I27">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1237,22 +1237,22 @@
         <v>21</v>
       </c>
       <c r="D28">
-        <v>0.757</v>
+        <v>0.753</v>
       </c>
       <c r="E28">
-        <v>0.644</v>
+        <v>0.645</v>
       </c>
       <c r="F28">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G28">
-        <v>0.615</v>
+        <v>0.618</v>
       </c>
       <c r="H28">
-        <v>0.579</v>
+        <v>0.588</v>
       </c>
       <c r="I28">
-        <v>0.274</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1266,22 +1266,22 @@
         <v>21</v>
       </c>
       <c r="D29">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="E29">
-        <v>0.644</v>
+        <v>0.647</v>
       </c>
       <c r="F29">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G29">
-        <v>0.622</v>
+        <v>0.634</v>
       </c>
       <c r="H29">
-        <v>0.576</v>
+        <v>0.57</v>
       </c>
       <c r="I29">
-        <v>0.276</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1295,19 +1295,19 @@
         <v>21</v>
       </c>
       <c r="D30">
-        <v>0.714</v>
+        <v>0.717</v>
       </c>
       <c r="E30">
-        <v>0.634</v>
+        <v>0.633</v>
       </c>
       <c r="F30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>0.594</v>
+        <v>0.606</v>
       </c>
       <c r="H30">
-        <v>0.584</v>
+        <v>0.57</v>
       </c>
       <c r="I30">
         <v>0.267</v>
@@ -1324,22 +1324,22 @@
         <v>21</v>
       </c>
       <c r="D31">
-        <v>0.737</v>
+        <v>0.743</v>
       </c>
       <c r="E31">
-        <v>0.637</v>
+        <v>0.642</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G31">
-        <v>0.618</v>
+        <v>0.633</v>
       </c>
       <c r="H31">
-        <v>0.5629999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="I31">
-        <v>0.269</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1353,22 +1353,22 @@
         <v>21</v>
       </c>
       <c r="D32">
-        <v>0.764</v>
+        <v>0.754</v>
       </c>
       <c r="E32">
-        <v>0.648</v>
+        <v>0.645</v>
       </c>
       <c r="F32">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="H32">
-        <v>0.572</v>
+        <v>0.584</v>
       </c>
       <c r="I32">
-        <v>0.276</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1382,22 +1382,22 @@
         <v>21</v>
       </c>
       <c r="D33">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="E33">
-        <v>0.647</v>
+        <v>0.652</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G33">
-        <v>0.629</v>
+        <v>0.641</v>
       </c>
       <c r="H33">
-        <v>0.574</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I33">
-        <v>0.278</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1411,19 +1411,19 @@
         <v>21</v>
       </c>
       <c r="D34">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="E34">
-        <v>0.633</v>
+        <v>0.636</v>
       </c>
       <c r="F34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>0.587</v>
+        <v>0.6</v>
       </c>
       <c r="H34">
-        <v>0.588</v>
+        <v>0.577</v>
       </c>
       <c r="I34">
         <v>0.266</v>
@@ -1440,19 +1440,19 @@
         <v>21</v>
       </c>
       <c r="D35">
-        <v>0.745</v>
+        <v>0.748</v>
       </c>
       <c r="E35">
-        <v>0.64</v>
+        <v>0.645</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0.64</v>
+        <v>0.639</v>
       </c>
       <c r="H35">
-        <v>0.546</v>
+        <v>0.547</v>
       </c>
       <c r="I35">
         <v>0.271</v>
@@ -1469,22 +1469,22 @@
         <v>21</v>
       </c>
       <c r="D36">
-        <v>0.771</v>
+        <v>0.76</v>
       </c>
       <c r="E36">
-        <v>0.65</v>
+        <v>0.649</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36">
-        <v>0.631</v>
+        <v>0.629</v>
       </c>
       <c r="H36">
-        <v>0.5649999999999999</v>
+        <v>0.572</v>
       </c>
       <c r="I36">
-        <v>0.276</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1498,22 +1498,22 @@
         <v>21</v>
       </c>
       <c r="D37">
-        <v>0.786</v>
+        <v>0.783</v>
       </c>
       <c r="E37">
-        <v>0.651</v>
+        <v>0.654</v>
       </c>
       <c r="F37">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G37">
-        <v>0.633</v>
+        <v>0.642</v>
       </c>
       <c r="H37">
-        <v>0.571</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I37">
-        <v>0.279</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1527,22 +1527,22 @@
         <v>21</v>
       </c>
       <c r="D38">
-        <v>0.728</v>
+        <v>0.729</v>
       </c>
       <c r="E38">
-        <v>0.633</v>
+        <v>0.64</v>
       </c>
       <c r="F38">
         <v>10</v>
       </c>
       <c r="G38">
-        <v>0.609</v>
+        <v>0.616</v>
       </c>
       <c r="H38">
-        <v>0.57</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I38">
-        <v>0.268</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1556,22 +1556,22 @@
         <v>21</v>
       </c>
       <c r="D39">
-        <v>0.758</v>
+        <v>0.753</v>
       </c>
       <c r="E39">
-        <v>0.644</v>
+        <v>0.647</v>
       </c>
       <c r="F39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G39">
-        <v>0.644</v>
+        <v>0.629</v>
       </c>
       <c r="H39">
-        <v>0.543</v>
+        <v>0.573</v>
       </c>
       <c r="I39">
-        <v>0.272</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>21</v>
       </c>
       <c r="D40">
-        <v>0.777</v>
+        <v>0.771</v>
       </c>
       <c r="E40">
         <v>0.652</v>
       </c>
       <c r="F40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G40">
-        <v>0.636</v>
+        <v>0.639</v>
       </c>
       <c r="H40">
-        <v>0.57</v>
+        <v>0.569</v>
       </c>
       <c r="I40">
-        <v>0.28</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1614,22 +1614,22 @@
         <v>21</v>
       </c>
       <c r="D41">
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="E41">
-        <v>0.654</v>
+        <v>0.656</v>
       </c>
       <c r="F41">
         <v>30</v>
       </c>
       <c r="G41">
-        <v>0.644</v>
+        <v>0.649</v>
       </c>
       <c r="H41">
-        <v>0.5639999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="I41">
-        <v>0.281</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1643,22 +1643,22 @@
         <v>21</v>
       </c>
       <c r="D42">
-        <v>0.735</v>
+        <v>0.738</v>
       </c>
       <c r="E42">
-        <v>0.64</v>
+        <v>0.644</v>
       </c>
       <c r="F42">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G42">
-        <v>0.612</v>
+        <v>0.629</v>
       </c>
       <c r="H42">
-        <v>0.57</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="I42">
-        <v>0.269</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1672,22 +1672,22 @@
         <v>21</v>
       </c>
       <c r="D43">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="E43">
-        <v>0.649</v>
+        <v>0.651</v>
       </c>
       <c r="F43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43">
-        <v>0.644</v>
+        <v>0.638</v>
       </c>
       <c r="H43">
-        <v>0.552</v>
+        <v>0.57</v>
       </c>
       <c r="I43">
-        <v>0.276</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1701,22 +1701,22 @@
         <v>21</v>
       </c>
       <c r="D44">
-        <v>0.786</v>
+        <v>0.78</v>
       </c>
       <c r="E44">
-        <v>0.657</v>
+        <v>0.654</v>
       </c>
       <c r="F44">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G44">
-        <v>0.648</v>
+        <v>0.639</v>
       </c>
       <c r="H44">
-        <v>0.5629999999999999</v>
+        <v>0.571</v>
       </c>
       <c r="I44">
-        <v>0.283</v>
+        <v>0.282</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1730,22 +1730,22 @@
         <v>21</v>
       </c>
       <c r="D45">
-        <v>0.8110000000000001</v>
+        <v>0.802</v>
       </c>
       <c r="E45">
-        <v>0.656</v>
+        <v>0.658</v>
       </c>
       <c r="F45">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G45">
-        <v>0.662</v>
+        <v>0.652</v>
       </c>
       <c r="H45">
-        <v>0.553</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="I45">
-        <v>0.285</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1759,22 +1759,22 @@
         <v>21</v>
       </c>
       <c r="D46">
-        <v>0.743</v>
+        <v>0.751</v>
       </c>
       <c r="E46">
-        <v>0.645</v>
+        <v>0.651</v>
       </c>
       <c r="F46">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G46">
         <v>0.627</v>
       </c>
       <c r="H46">
-        <v>0.5570000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I46">
-        <v>0.27</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1788,22 +1788,22 @@
         <v>21</v>
       </c>
       <c r="D47">
-        <v>0.775</v>
+        <v>0.776</v>
       </c>
       <c r="E47">
-        <v>0.652</v>
+        <v>0.653</v>
       </c>
       <c r="F47">
         <v>19</v>
       </c>
       <c r="G47">
-        <v>0.646</v>
+        <v>0.645</v>
       </c>
       <c r="H47">
-        <v>0.5570000000000001</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I47">
-        <v>0.279</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1817,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="D48">
-        <v>0.803</v>
+        <v>0.795</v>
       </c>
       <c r="E48">
         <v>0.658</v>
@@ -1826,13 +1826,13 @@
         <v>28</v>
       </c>
       <c r="G48">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H48">
-        <v>0.545</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I48">
-        <v>0.285</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1846,19 +1846,19 @@
         <v>21</v>
       </c>
       <c r="D49">
-        <v>0.821</v>
+        <v>0.822</v>
       </c>
       <c r="E49">
-        <v>0.659</v>
+        <v>0.661</v>
       </c>
       <c r="F49">
         <v>32</v>
       </c>
       <c r="G49">
-        <v>0.672</v>
+        <v>0.68</v>
       </c>
       <c r="H49">
-        <v>0.546</v>
+        <v>0.536</v>
       </c>
       <c r="I49">
         <v>0.287</v>
